--- a/docs/couleurs.xlsx
+++ b/docs/couleurs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/couleurs.xlsx
+++ b/docs/couleurs.xlsx
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="B3:F3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +514,35 @@
       </c>
       <c r="J5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.75</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
